--- a/Venus_Jttxl/docs/project升级信息.xlsx
+++ b/Venus_Jttxl/docs/project升级信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>升级人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,15 +67,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2013年4月15日14:24:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.增加BackgroundApp接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年4月23日13:21:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.增加GetAppStartParamString()2.增加流量统计接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>高永磊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2013年4月15日14:24:24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.增加BackgroundApp接口</t>
+    <t>1.数据库功能接口添加。2.增加AppManager_applyPatchToOldApk接口。3.修改线程退出。4.解决后台运行过程中被系统关闭引起的黑屏问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年5月3日17:08:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高永磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年5月8日9:17:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.增加联系人搜索接口。2.sqlite3插件使用：libsqlcipher_android.so，libstlport_shared.so。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +150,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -133,6 +161,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -438,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -452,54 +489,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
@@ -546,14 +583,47 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:22" ht="40.5">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="67.5">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="54">
+      <c r="A10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
